--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S18/S18_storagemod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S18/S18_storagemod.xlsx
@@ -14,150 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Frequency (Hz)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>0.025561826278576</t>
-  </si>
-  <si>
-    <t>0.040372529627115114</t>
-  </si>
-  <si>
-    <t>0.06378638825513525</t>
-  </si>
-  <si>
-    <t>0.10076274088263015</t>
-  </si>
-  <si>
-    <t>0.15407953552668285</t>
-  </si>
-  <si>
-    <t>0.24348526038250126</t>
-  </si>
-  <si>
-    <t>0.37858566212335387</t>
-  </si>
-  <si>
-    <t>0.5983913824063485</t>
-  </si>
-  <si>
-    <t>0.9303651919174812</t>
-  </si>
-  <si>
-    <t>1.4705588516505443</t>
-  </si>
-  <si>
-    <t>2.2496466216943674</t>
-  </si>
-  <si>
-    <t>3.6137659320940028</t>
-  </si>
-  <si>
-    <t>5.619859904086681</t>
-  </si>
-  <si>
-    <t>9.176591883382342</t>
-  </si>
-  <si>
-    <t>14.036247245979833</t>
-  </si>
-  <si>
-    <t>22.183264189047975</t>
-  </si>
-  <si>
-    <t>35.05462931084339</t>
-  </si>
-  <si>
-    <t>55.387376198737165</t>
-  </si>
-  <si>
-    <t>84.71283839413667</t>
-  </si>
-  <si>
-    <t>131.66530100712188</t>
-  </si>
-  <si>
-    <t>204.71294224489912</t>
-  </si>
-  <si>
-    <t>328.76817823773916</t>
-  </si>
-  <si>
-    <t>510.98251225732986</t>
-  </si>
-  <si>
-    <t>8614.641677772</t>
-  </si>
-  <si>
-    <t>8942.8771591044</t>
-  </si>
-  <si>
-    <t>10145.826355461359</t>
-  </si>
-  <si>
-    <t>11036.402521333066</t>
-  </si>
-  <si>
-    <t>12346.608403692346</t>
-  </si>
-  <si>
-    <t>14746.464135668688</t>
-  </si>
-  <si>
-    <t>18156.12493249854</t>
-  </si>
-  <si>
-    <t>22936.30518403896</t>
-  </si>
-  <si>
-    <t>27846.37737078283</t>
-  </si>
-  <si>
-    <t>35342.64157652705</t>
-  </si>
-  <si>
-    <t>44232.2763875424</t>
-  </si>
-  <si>
-    <t>53826.92116220817</t>
-  </si>
-  <si>
-    <t>69281.9111407088</t>
-  </si>
-  <si>
-    <t>85500.78964437716</t>
-  </si>
-  <si>
-    <t>103079.03937417899</t>
-  </si>
-  <si>
-    <t>126616.59294315023</t>
-  </si>
-  <si>
-    <t>150522.29878614732</t>
-  </si>
-  <si>
-    <t>173181.30978986452</t>
-  </si>
-  <si>
-    <t>204918.53064641322</t>
-  </si>
-  <si>
-    <t>227910.2554350875</t>
-  </si>
-  <si>
-    <t>277671.69929779164</t>
-  </si>
-  <si>
-    <t>317981.45324078423</t>
-  </si>
-  <si>
-    <t>352421.1143717314</t>
+    <t>Storage modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -530,187 +392,187 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
+      <c r="A2">
+        <v>0.025561826278576</v>
+      </c>
+      <c r="B2">
+        <v>8614.641677772001</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
+      <c r="A3">
+        <v>0.04037252962711511</v>
+      </c>
+      <c r="B3">
+        <v>8942.877159104401</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
+      <c r="A4">
+        <v>0.06378638825513525</v>
+      </c>
+      <c r="B4">
+        <v>10145.82635546136</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
+      <c r="A5">
+        <v>0.1007627408826302</v>
+      </c>
+      <c r="B5">
+        <v>11036.40252133307</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
+      <c r="A6">
+        <v>0.1540795355266829</v>
+      </c>
+      <c r="B6">
+        <v>12346.60840369235</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
+      <c r="A7">
+        <v>0.2434852603825013</v>
+      </c>
+      <c r="B7">
+        <v>14746.46413566869</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
+      <c r="A8">
+        <v>0.3785856621233539</v>
+      </c>
+      <c r="B8">
+        <v>18156.12493249854</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
+      <c r="A9">
+        <v>0.5983913824063485</v>
+      </c>
+      <c r="B9">
+        <v>22936.30518403896</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
+      <c r="A10">
+        <v>0.9303651919174812</v>
+      </c>
+      <c r="B10">
+        <v>27846.37737078283</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
+      <c r="A11">
+        <v>1.470558851650544</v>
+      </c>
+      <c r="B11">
+        <v>35342.64157652705</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
+      <c r="A12">
+        <v>2.249646621694367</v>
+      </c>
+      <c r="B12">
+        <v>44232.2763875424</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
+      <c r="A13">
+        <v>3.613765932094003</v>
+      </c>
+      <c r="B13">
+        <v>53826.92116220817</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
+      <c r="A14">
+        <v>5.619859904086681</v>
+      </c>
+      <c r="B14">
+        <v>69281.91114070881</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
+      <c r="A15">
+        <v>9.176591883382342</v>
+      </c>
+      <c r="B15">
+        <v>85500.78964437716</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
+      <c r="A16">
+        <v>14.03624724597983</v>
+      </c>
+      <c r="B16">
+        <v>103079.039374179</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
+      <c r="A17">
+        <v>22.18326418904797</v>
+      </c>
+      <c r="B17">
+        <v>126616.5929431502</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
+      <c r="A18">
+        <v>35.05462931084339</v>
+      </c>
+      <c r="B18">
+        <v>150522.2987861473</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
+      <c r="A19">
+        <v>55.38737619873717</v>
+      </c>
+      <c r="B19">
+        <v>173181.3097898645</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
+      <c r="A20">
+        <v>84.71283839413667</v>
+      </c>
+      <c r="B20">
+        <v>204918.5306464132</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
+      <c r="A21">
+        <v>131.6653010071219</v>
+      </c>
+      <c r="B21">
+        <v>227910.2554350875</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
+      <c r="A22">
+        <v>204.7129422448991</v>
+      </c>
+      <c r="B22">
+        <v>277671.6992977916</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
+      <c r="A23">
+        <v>328.7681782377392</v>
+      </c>
+      <c r="B23">
+        <v>317981.4532407842</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
+      <c r="A24">
+        <v>510.9825122573299</v>
+      </c>
+      <c r="B24">
+        <v>352421.1143717314</v>
       </c>
     </row>
   </sheetData>
